--- a/StructureDefinition-profile-ExampleScenario.xlsx
+++ b/StructureDefinition-profile-ExampleScenario.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3843" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="513">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.6943587-06:00</t>
+    <t>2026-02-09T22:05:43.1223616-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,38 +419,125 @@
     <t>ExampleScenario.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ExampleScenario.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.versionAlgorithm[x]` is will have a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ExampleScenario.extension:title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.title|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.title from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the ExampleScenario.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.title` is will have a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.extension:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.description|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.description from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the ExampleScenario from a consumer's perspective.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.description` is will have a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.copyrightLabel` is will have a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ExampleScenario.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -788,6 +875,9 @@
     <t>ExampleScenario.actor.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -874,6 +964,64 @@
     <t>ExampleScenario.instance.extension</t>
   </si>
   <si>
+    <t>ExampleScenario.instance.extension:structureVersion</t>
+  </si>
+  <si>
+    <t>structureVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance.structureVersion|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.instance.structureVersion from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Conveys the version of the data structure instantiated.  I.e. what release of FHIR, X12, OpenEHR, etc. is instance compliant with.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.instance.structureVersion` is will have a context of ExampleScenario.instance based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.extension:structureProfile</t>
+  </si>
+  <si>
+    <t>structureProfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance.structureProfile|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.instance.structureProfile[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Refers to a profile, template or other ruleset the instance adheres to.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.instance.structureProfile[x]` is will have a context of ExampleScenario.instance based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.extension:content</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.instance.content from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Used when the target of the reference has a type that is not allowed by the definition of the element. In general, this should only arise when wrangling between versions using cross-version extensions.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.instance.content` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ExampleScenario.instance.content` is will have a context of ExampleScenario.instance based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+  </si>
+  <si>
     <t>ExampleScenario.instance.modifierExtension</t>
   </si>
   <si>
@@ -913,17 +1061,10 @@
     <t>ExampleScenario.instance.resourceType.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>ExampleScenario.instance.resourceType.extension:structureType</t>
+  </si>
+  <si>
+    <t>structureType</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance.structureType|0.0.1-snapshot-3}
@@ -936,50 +1077,75 @@
     <t>A code indicating the kind of data structure (FHIR resource or some other standard) this is an instance of.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
+    <t>Element `ExampleScenario.instance.structureType` is mapped to FHIR R4 element `ExampleScenario.instance.resourceType`.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.resourceType.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.name</t>
+  </si>
+  <si>
+    <t>A short name for the resource instance</t>
+  </si>
+  <si>
+    <t>A short name for the resource instance.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.description</t>
+  </si>
+  <si>
+    <t>Human-friendly description of the resource instance</t>
+  </si>
+  <si>
+    <t>Human-friendly description of the resource instance.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.version</t>
+  </si>
+  <si>
+    <t>A specific version of the resource</t>
+  </si>
+  <si>
+    <t>A specific version of the resource.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.version.id</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.version.extension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.version.extension:title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance.version.title|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>ExampleScenario.instance.resourceType.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.name</t>
-  </si>
-  <si>
-    <t>A short name for the resource instance</t>
-  </si>
-  <si>
-    <t>A short name for the resource instance.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.description</t>
-  </si>
-  <si>
-    <t>Human-friendly description of the resource instance</t>
-  </si>
-  <si>
-    <t>Human-friendly description of the resource instance.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.version</t>
-  </si>
-  <si>
-    <t>A specific version of the resource</t>
-  </si>
-  <si>
-    <t>A specific version of the resource.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.version.id</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.version.extension</t>
+    <t>Cross-version extension for ExampleScenario.instance.version.title from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short descriptive label the version to be used in tables or diagrams.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.instance.version.title` is will have a context of ExampleScenario.instance.version based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.version.extension:content</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.instance.version.content from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.instance.version.content` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ExampleScenario.instance.version.content` is will have a context of ExampleScenario.instance.version based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
   </si>
   <si>
     <t>ExampleScenario.instance.version.modifierExtension</t>
@@ -1108,6 +1274,47 @@
     <t>ExampleScenario.process.step.extension</t>
   </si>
   <si>
+    <t>ExampleScenario.process.step.extension:number</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process.step.number|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.process.step.number from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The sequential number of the step, e.g. 1.2.5.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.process.step.number` is part of an existing definition because parent element `ExampleScenario.process.step` requires a component extension (e.g., if this element is used as a content reference).
+Element `ExampleScenario.process.step.number` is will have a context of ExampleScenario.process.step based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.step.extension:workflow</t>
+  </si>
+  <si>
+    <t>workflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.process.step.workflow from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ExampleScenario in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.process.step.workflow` is part of an existing definition because parent element `ExampleScenario.process.step` requires a component extension (e.g., if this element is used as a content reference).
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.process.step.workflow` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ExampleScenario.process.step.workflow` is will have a context of ExampleScenario.process.step based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+  </si>
+  <si>
     <t>ExampleScenario.process.step.modifierExtension</t>
   </si>
   <si>
@@ -1169,6 +1376,12 @@
   </si>
   <si>
     <t>ExampleScenario.process.step.operation.type.extension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.step.operation.type.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process.step.operation.type|0.0.1-snapshot-3}
@@ -1181,6 +1394,9 @@
     <t>The standardized type of action (FHIR or otherwise).</t>
   </si>
   <si>
+    <t>Element `ExampleScenario.process.step.operation.type` is mapped to FHIR R4 element `ExampleScenario.process.step.operation.type`.</t>
+  </si>
+  <si>
     <t>ExampleScenario.process.step.operation.type.value</t>
   </si>
   <si>
@@ -1260,6 +1476,12 @@
   </si>
   <si>
     <t>ExampleScenario.process.step.operation.request.extension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.step.operation.request.extension:request</t>
+  </si>
+  <si>
+    <t>request</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process.step.operation.request|0.0.1-snapshot-3}
@@ -1272,6 +1494,9 @@
     <t>A reference to the instance that is transmitted from requester to receiver as part of the invocation of the operation.</t>
   </si>
   <si>
+    <t>Element `ExampleScenario.process.step.operation.request` is mapped to FHIR R4 element `ExampleScenario.process.step.operation.request`.</t>
+  </si>
+  <si>
     <t>ExampleScenario.process.step.operation.request.modifierExtension</t>
   </si>
   <si>
@@ -1294,6 +1519,12 @@
   </si>
   <si>
     <t>ExampleScenario.process.step.operation.response.extension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.step.operation.response.extension:response</t>
+  </si>
+  <si>
+    <t>response</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process.step.operation.response|0.0.1-snapshot-3}
@@ -1304,6 +1535,9 @@
   </si>
   <si>
     <t>A reference to the instance that is transmitted from receiver to requester as part of the operation's synchronous response (if any).</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.process.step.operation.response` is mapped to FHIR R4 element `ExampleScenario.process.step.operation.response`.</t>
   </si>
   <si>
     <t>ExampleScenario.process.step.operation.response.modifierExtension</t>
@@ -1677,7 +1911,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN107"/>
+  <dimension ref="A1:AN118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1686,9 +1920,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="57.53515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="56.51171875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2652,7 +2886,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2671,17 +2905,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2718,16 +2950,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2754,7 +2984,7 @@
         <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2762,43 +2992,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2846,7 +3076,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2855,7 +3085,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
@@ -2870,17 +3100,19 @@
         <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2898,23 +3130,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2962,25 +3192,25 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -2991,12 +3221,14 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3005,7 +3237,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3014,23 +3246,21 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3078,7 +3308,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3087,19 +3317,19 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3107,12 +3337,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3130,7 +3362,7 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>159</v>
@@ -3192,25 +3424,25 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3221,45 +3453,45 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3308,19 +3540,19 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3332,15 +3564,15 @@
         <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3348,7 +3580,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3357,24 +3589,26 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3398,13 +3632,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3422,10 +3656,10 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3437,10 +3671,10 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3451,10 +3685,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3465,7 +3699,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3477,19 +3711,19 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3538,13 +3772,13 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
@@ -3553,13 +3787,13 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3567,14 +3801,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3593,16 +3827,16 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3652,7 +3886,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3667,10 +3901,10 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3681,10 +3915,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3707,19 +3941,19 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O18" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3768,7 +4002,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3777,16 +4011,16 @@
         <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3797,10 +4031,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3808,31 +4042,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3858,13 +4092,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3882,13 +4116,13 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -3897,10 +4131,10 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3911,10 +4145,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3925,7 +4159,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3937,19 +4171,19 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3998,13 +4232,13 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -4013,10 +4247,10 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4027,21 +4261,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4088,13 +4322,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>221</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>222</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4112,13 +4346,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -4127,10 +4361,10 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4141,14 +4375,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4164,22 +4398,22 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="O22" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4228,7 +4462,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4243,13 +4477,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>77</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4257,10 +4491,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4271,7 +4505,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4280,19 +4514,19 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4342,13 +4576,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4357,13 +4591,13 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>237</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4371,10 +4605,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4394,19 +4628,23 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4454,7 +4692,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4469,7 +4707,7 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4497,7 +4735,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4506,18 +4744,20 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4542,13 +4782,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4566,22 +4806,22 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4590,26 +4830,26 @@
         <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4621,18 +4861,20 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>133</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>256</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4680,75 +4922,73 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4796,39 +5036,39 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4836,10 +5076,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4851,17 +5091,15 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4910,13 +5148,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4939,10 +5177,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4950,7 +5188,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -4965,13 +5203,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4998,13 +5236,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5022,10 +5260,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
@@ -5034,7 +5272,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -5046,26 +5284,26 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5077,16 +5315,16 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5136,19 +5374,19 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5160,49 +5398,51 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5250,19 +5490,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5274,15 +5514,15 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5290,10 +5530,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
@@ -5305,15 +5545,17 @@
         <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5362,13 +5604,13 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
@@ -5391,10 +5633,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5402,7 +5644,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
@@ -5417,13 +5659,13 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>243</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>244</v>
+        <v>289</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5450,13 +5692,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5474,10 +5716,10 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>86</v>
@@ -5486,7 +5728,7 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5498,26 +5740,26 @@
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5529,16 +5771,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>133</v>
+        <v>293</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>248</v>
+        <v>294</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5588,19 +5830,19 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5612,51 +5854,49 @@
         <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>253</v>
+        <v>298</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5704,19 +5944,19 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5728,15 +5968,15 @@
         <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5744,10 +5984,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5759,13 +5999,13 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5816,13 +6056,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -5845,10 +6085,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5856,7 +6096,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
@@ -5871,13 +6111,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5904,13 +6144,13 @@
         <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>77</v>
@@ -5928,10 +6168,10 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>86</v>
@@ -5940,7 +6180,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5952,15 +6192,15 @@
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5971,7 +6211,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -5983,13 +6223,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>286</v>
+        <v>132</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6028,31 +6268,29 @@
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6069,21 +6307,23 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6095,15 +6335,17 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6140,17 +6382,19 @@
         <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6159,7 +6403,7 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>137</v>
@@ -6179,18 +6423,20 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>86</v>
@@ -6205,15 +6451,17 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6262,7 +6510,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6271,7 +6519,7 @@
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>296</v>
+        <v>144</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>137</v>
@@ -6291,12 +6539,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6317,15 +6567,17 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6374,19 +6626,19 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6403,42 +6655,46 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6486,19 +6742,19 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6510,15 +6766,15 @@
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6526,7 +6782,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>86</v>
@@ -6541,13 +6797,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6598,10 +6854,10 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>86</v>
@@ -6627,10 +6883,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6638,10 +6894,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6653,13 +6909,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>239</v>
+        <v>106</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6686,13 +6942,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>77</v>
+        <v>329</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>77</v>
+        <v>330</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6710,13 +6966,13 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
@@ -6739,10 +6995,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6765,13 +7021,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6822,7 +7078,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6846,23 +7102,23 @@
         <v>77</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -6877,17 +7133,15 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6924,19 +7178,17 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6960,51 +7212,51 @@
         <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D47" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>337</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>252</v>
+        <v>338</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>253</v>
+        <v>339</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7052,7 +7304,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7061,7 +7313,7 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>137</v>
@@ -7076,15 +7328,15 @@
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7092,7 +7344,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>86</v>
@@ -7107,13 +7359,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7164,10 +7416,10 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>86</v>
@@ -7176,7 +7428,7 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7193,10 +7445,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7204,7 +7456,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>86</v>
@@ -7219,13 +7471,13 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7276,10 +7528,10 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>86</v>
@@ -7305,10 +7557,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7319,7 +7571,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7331,13 +7583,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7388,13 +7640,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7417,10 +7669,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7431,7 +7683,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7443,13 +7695,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>243</v>
+        <v>351</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>244</v>
+        <v>352</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7500,19 +7752,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>77</v>
@@ -7524,26 +7776,26 @@
         <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>322</v>
+        <v>353</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7555,17 +7807,15 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7614,19 +7864,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7638,23 +7888,23 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>246</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -7663,26 +7913,22 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7718,19 +7964,17 @@
         <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7754,17 +7998,19 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7785,15 +8031,17 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>159</v>
+        <v>356</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7842,19 +8090,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>324</v>
+        <v>277</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7871,12 +8119,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7897,15 +8147,17 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>159</v>
+        <v>318</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7954,19 +8206,19 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -7983,14 +8235,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8003,22 +8255,26 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>239</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8066,7 +8322,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8078,7 +8334,7 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8090,15 +8346,15 @@
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8106,7 +8362,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>86</v>
@@ -8121,13 +8377,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>243</v>
+        <v>365</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>244</v>
+        <v>366</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8178,10 +8434,10 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>86</v>
@@ -8190,7 +8446,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8202,26 +8458,26 @@
         <v>77</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8233,17 +8489,15 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>133</v>
+        <v>368</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8292,19 +8546,19 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>249</v>
+        <v>367</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>77</v>
@@ -8316,19 +8570,19 @@
         <v>77</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8341,26 +8595,22 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8408,7 +8658,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>254</v>
+        <v>370</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8420,7 +8670,7 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8432,15 +8682,15 @@
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8448,7 +8698,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>86</v>
@@ -8460,16 +8710,16 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>337</v>
+        <v>270</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8520,10 +8770,10 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>86</v>
@@ -8532,7 +8782,7 @@
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8544,26 +8794,26 @@
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8575,15 +8825,17 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8632,19 +8884,19 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>339</v>
+        <v>277</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>77</v>
@@ -8656,47 +8908,51 @@
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>343</v>
+        <v>280</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8744,19 +9000,19 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>342</v>
+        <v>282</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>77</v>
@@ -8768,15 +9024,15 @@
         <v>77</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8784,7 +9040,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>86</v>
@@ -8799,13 +9055,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8856,10 +9112,10 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>86</v>
@@ -8885,10 +9141,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8899,7 +9155,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -8911,13 +9167,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8968,13 +9224,13 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
@@ -8997,10 +9253,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9011,7 +9267,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9023,13 +9279,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>243</v>
+        <v>383</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>244</v>
+        <v>384</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9080,19 +9336,19 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>245</v>
+        <v>382</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>77</v>
@@ -9104,26 +9360,26 @@
         <v>77</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>352</v>
+        <v>385</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9135,17 +9391,15 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>133</v>
+        <v>270</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9194,19 +9448,19 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9218,19 +9472,19 @@
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>246</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>353</v>
+        <v>386</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>251</v>
+        <v>164</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9243,26 +9497,24 @@
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9310,7 +9562,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9334,19 +9586,19 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>129</v>
+        <v>273</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>354</v>
+        <v>387</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9359,22 +9611,26 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>355</v>
+        <v>280</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9422,7 +9678,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>354</v>
+        <v>282</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9434,7 +9690,7 @@
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9446,15 +9702,15 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9462,7 +9718,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>86</v>
@@ -9474,16 +9730,16 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9534,10 +9790,10 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>86</v>
@@ -9563,10 +9819,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9589,13 +9845,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9646,7 +9902,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9675,10 +9931,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9701,13 +9957,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>243</v>
+        <v>395</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>244</v>
+        <v>396</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9758,7 +10014,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>245</v>
+        <v>394</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9770,7 +10026,7 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
@@ -9782,26 +10038,26 @@
         <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>364</v>
+        <v>397</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -9813,17 +10069,15 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>132</v>
+        <v>253</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>133</v>
+        <v>398</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>77</v>
@@ -9872,19 +10126,19 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>249</v>
+        <v>397</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>77</v>
@@ -9896,19 +10150,19 @@
         <v>77</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -9921,26 +10175,22 @@
         <v>77</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>252</v>
+        <v>401</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
       </c>
@@ -9988,7 +10238,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>254</v>
+        <v>400</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10000,7 +10250,7 @@
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
@@ -10012,15 +10262,15 @@
         <v>77</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10028,7 +10278,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>86</v>
@@ -10043,13 +10293,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>367</v>
+        <v>270</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>368</v>
+        <v>271</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10100,10 +10350,10 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>366</v>
+        <v>272</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>86</v>
@@ -10112,7 +10362,7 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
@@ -10124,15 +10374,15 @@
         <v>77</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10143,7 +10393,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10155,13 +10405,13 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>370</v>
+        <v>132</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>371</v>
+        <v>133</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10200,31 +10450,29 @@
         <v>77</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC75" s="2"/>
       <c r="AD75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>369</v>
+        <v>277</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -10241,12 +10489,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>372</v>
+        <v>405</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10267,15 +10517,17 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>159</v>
+        <v>407</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>286</v>
+        <v>408</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10324,19 +10576,19 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>77</v>
@@ -10353,21 +10605,23 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>373</v>
+        <v>411</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
@@ -10379,15 +10633,17 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>132</v>
+        <v>413</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>289</v>
+        <v>414</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N77" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10424,17 +10680,19 @@
         <v>77</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AC77" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -10463,42 +10721,46 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>374</v>
+        <v>131</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10546,7 +10808,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -10555,7 +10817,7 @@
         <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>137</v>
@@ -10570,15 +10832,15 @@
         <v>77</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10589,7 +10851,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -10601,13 +10863,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10631,7 +10893,7 @@
         <v>77</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>380</v>
+        <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>77</v>
@@ -10658,19 +10920,19 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>299</v>
+        <v>418</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
@@ -10687,10 +10949,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10713,13 +10975,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>382</v>
+        <v>422</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10770,7 +11032,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10799,10 +11061,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10825,13 +11087,13 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10882,7 +11144,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -10911,10 +11173,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10937,13 +11199,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>388</v>
+        <v>270</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>389</v>
+        <v>271</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10994,7 +11256,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>387</v>
+        <v>272</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11006,7 +11268,7 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
@@ -11018,26 +11280,26 @@
         <v>77</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11049,15 +11311,17 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>391</v>
+        <v>275</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -11106,19 +11370,19 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>390</v>
+        <v>277</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
@@ -11130,47 +11394,51 @@
         <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>393</v>
+        <v>429</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>394</v>
+        <v>280</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11218,19 +11486,19 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>393</v>
+        <v>282</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>77</v>
@@ -11242,15 +11510,15 @@
         <v>77</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11258,7 +11526,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>86</v>
@@ -11273,13 +11541,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11330,10 +11598,10 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>86</v>
@@ -11359,10 +11627,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11385,13 +11653,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11442,7 +11710,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11471,10 +11739,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11497,13 +11765,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>243</v>
+        <v>332</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>244</v>
+        <v>333</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11554,7 +11822,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -11578,15 +11846,15 @@
         <v>77</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11594,7 +11862,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -11609,13 +11877,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="M88" t="s" s="2">
-        <v>290</v>
+        <v>133</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11654,17 +11922,17 @@
         <v>77</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>291</v>
+        <v>134</v>
       </c>
       <c r="AC88" s="2"/>
       <c r="AD88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>292</v>
+        <v>135</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11693,12 +11961,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="D89" t="s" s="2">
         <v>77</v>
       </c>
@@ -11719,15 +11989,17 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>404</v>
+        <v>440</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -11776,7 +12048,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -11785,7 +12057,7 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>296</v>
+        <v>144</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>137</v>
@@ -11805,46 +12077,42 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>407</v>
+        <v>444</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>252</v>
+        <v>445</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
       </c>
@@ -11865,7 +12133,7 @@
         <v>77</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="X90" t="s" s="2">
         <v>77</v>
@@ -11892,19 +12160,19 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>254</v>
+        <v>343</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
@@ -11916,15 +12184,15 @@
         <v>77</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>408</v>
+        <v>448</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11932,7 +12200,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>86</v>
@@ -11947,13 +12215,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>325</v>
+        <v>449</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>326</v>
+        <v>450</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12004,10 +12272,10 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>324</v>
+        <v>448</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>86</v>
@@ -12033,10 +12301,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12059,13 +12327,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>328</v>
+        <v>452</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>329</v>
+        <v>453</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12116,7 +12384,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>327</v>
+        <v>451</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12145,10 +12413,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12171,13 +12439,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>411</v>
+        <v>455</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12228,7 +12496,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>410</v>
+        <v>454</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12257,10 +12525,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12283,13 +12551,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>159</v>
+        <v>253</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>243</v>
+        <v>458</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>244</v>
+        <v>459</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12340,7 +12608,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>245</v>
+        <v>457</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12352,7 +12620,7 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
@@ -12364,15 +12632,15 @@
         <v>77</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12380,10 +12648,10 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
@@ -12395,13 +12663,13 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>132</v>
+        <v>208</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>289</v>
+        <v>461</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>290</v>
+        <v>462</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -12440,29 +12708,31 @@
         <v>77</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AC95" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>249</v>
+        <v>460</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>77</v>
@@ -12479,10 +12749,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12505,13 +12775,13 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>415</v>
+        <v>208</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12562,19 +12832,19 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>249</v>
+        <v>463</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>296</v>
+        <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>77</v>
@@ -12591,46 +12861,42 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>132</v>
+        <v>266</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>252</v>
+        <v>467</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O97" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
         <v>77</v>
       </c>
@@ -12678,19 +12944,19 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>254</v>
+        <v>466</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>77</v>
@@ -12702,15 +12968,15 @@
         <v>77</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12718,7 +12984,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>86</v>
@@ -12733,13 +12999,13 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>325</v>
+        <v>270</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12790,10 +13056,10 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>324</v>
+        <v>272</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>86</v>
@@ -12802,7 +13068,7 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>77</v>
@@ -12814,15 +13080,15 @@
         <v>77</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12833,7 +13099,7 @@
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>77</v>
@@ -12845,13 +13111,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>328</v>
+        <v>132</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>329</v>
+        <v>133</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12890,31 +13156,29 @@
         <v>77</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC99" s="2"/>
       <c r="AD99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>77</v>
@@ -12931,12 +13195,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>470</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
       </c>
@@ -12945,7 +13211,7 @@
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>77</v>
@@ -12957,15 +13223,17 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>239</v>
+        <v>473</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -13014,7 +13282,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>421</v>
+        <v>277</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13023,10 +13291,10 @@
         <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>77</v>
@@ -13043,42 +13311,46 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>424</v>
+        <v>477</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
       </c>
@@ -13126,19 +13398,19 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>77</v>
@@ -13150,26 +13422,26 @@
         <v>77</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>246</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>425</v>
+        <v>478</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>77</v>
@@ -13181,17 +13453,15 @@
         <v>77</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>133</v>
+        <v>377</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>77</v>
@@ -13240,19 +13510,19 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>249</v>
+        <v>376</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>77</v>
@@ -13264,51 +13534,47 @@
         <v>77</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>426</v>
+        <v>479</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>252</v>
+        <v>380</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>77</v>
       </c>
@@ -13356,19 +13622,19 @@
         <v>77</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>254</v>
+        <v>379</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>77</v>
@@ -13380,15 +13646,15 @@
         <v>77</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13396,7 +13662,7 @@
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
         <v>86</v>
@@ -13411,13 +13677,13 @@
         <v>77</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>159</v>
+        <v>266</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>428</v>
+        <v>481</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>429</v>
+        <v>482</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13468,10 +13734,10 @@
         <v>77</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>427</v>
+        <v>480</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>86</v>
@@ -13497,10 +13763,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13523,13 +13789,13 @@
         <v>77</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>226</v>
+        <v>186</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>431</v>
+        <v>270</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>432</v>
+        <v>271</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -13580,7 +13846,7 @@
         <v>77</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>430</v>
+        <v>272</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -13592,7 +13858,7 @@
         <v>77</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>77</v>
@@ -13604,15 +13870,15 @@
         <v>77</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13635,13 +13901,13 @@
         <v>77</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>434</v>
+        <v>132</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>435</v>
+        <v>133</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -13680,19 +13946,17 @@
         <v>77</v>
       </c>
       <c r="AB106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC106" s="2"/>
       <c r="AD106" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>433</v>
+        <v>277</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -13704,7 +13968,7 @@
         <v>77</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>77</v>
@@ -13721,12 +13985,14 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>436</v>
+        <v>485</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="C107" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>486</v>
+      </c>
       <c r="D107" t="s" s="2">
         <v>77</v>
       </c>
@@ -13735,7 +14001,7 @@
         <v>78</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>77</v>
@@ -13747,15 +14013,17 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>490</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>77</v>
@@ -13804,7 +14072,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>436</v>
+        <v>277</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -13813,21 +14081,1263 @@
         <v>79</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ107" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN107" t="s" s="2">
+      <c r="AK109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O114" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN118" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ExampleScenario.xlsx
+++ b/StructureDefinition-profile-ExampleScenario.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4250" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="446">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1223616-06:00</t>
+    <t>2026-02-17T14:42:26.808686-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `ExampleScenario.versionAlgorithm[x]` is will have a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+    <t>Element `ExampleScenario.versionAlgorithm[x]` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -482,7 +482,7 @@
     <t>A short, descriptive, user-friendly title for the ExampleScenario.</t>
   </si>
   <si>
-    <t>Element `ExampleScenario.title` is will have a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+    <t>Element `ExampleScenario.title` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
   </si>
   <si>
     <t>ExampleScenario.extension:description</t>
@@ -501,7 +501,7 @@
     <t>A free text natural language description of the ExampleScenario from a consumer's perspective.</t>
   </si>
   <si>
-    <t>Element `ExampleScenario.description` is will have a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+    <t>Element `ExampleScenario.description` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
   </si>
   <si>
     <t>ExampleScenario.extension:copyrightLabel</t>
@@ -520,7 +520,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `ExampleScenario.copyrightLabel` is will have a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+    <t>Element `ExampleScenario.copyrightLabel` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
   </si>
   <si>
     <t>ExampleScenario.modifierExtension</t>
@@ -875,13 +875,26 @@
     <t>ExampleScenario.actor.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.actor.extension:actor</t>
+  </si>
+  <si>
+    <t>actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.actor|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.actor from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A system or person who shares or receives an instance within the scenario.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.actor` has is mapped to FHIR R4 element `ExampleScenario.actor`, but has no comparisons.</t>
   </si>
   <si>
     <t>ExampleScenario.actor.modifierExtension</t>
@@ -964,260 +977,181 @@
     <t>ExampleScenario.instance.extension</t>
   </si>
   <si>
-    <t>ExampleScenario.instance.extension:structureVersion</t>
-  </si>
-  <si>
-    <t>structureVersion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance.structureVersion|0.0.1-snapshot-3}
+    <t>ExampleScenario.instance.extension:instance</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ExampleScenario.instance.structureVersion from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Conveys the version of the data structure instantiated.  I.e. what release of FHIR, X12, OpenEHR, etc. is instance compliant with.</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.instance.structureVersion` is will have a context of ExampleScenario.instance based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.extension:structureProfile</t>
-  </si>
-  <si>
-    <t>structureProfile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance.structureProfile|0.0.1-snapshot-3}
+    <t>Cross-version extension for ExampleScenario.instance from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A single data collection that is shared as part of the scenario.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.instance` has is mapped to FHIR R4 element `ExampleScenario.instance`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.resourceId</t>
+  </si>
+  <si>
+    <t>The id of the resource for referencing</t>
+  </si>
+  <si>
+    <t>The id of the resource for referencing.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.resourceType</t>
+  </si>
+  <si>
+    <t>The type of the resource</t>
+  </si>
+  <si>
+    <t>The type of the resource.</t>
+  </si>
+  <si>
+    <t>The type of resource.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.name</t>
+  </si>
+  <si>
+    <t>A short name for the resource instance</t>
+  </si>
+  <si>
+    <t>A short name for the resource instance.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.description</t>
+  </si>
+  <si>
+    <t>Human-friendly description of the resource instance</t>
+  </si>
+  <si>
+    <t>Human-friendly description of the resource instance.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.version</t>
+  </si>
+  <si>
+    <t>A specific version of the resource</t>
+  </si>
+  <si>
+    <t>A specific version of the resource.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.version.id</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.version.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.version.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.version.versionId</t>
+  </si>
+  <si>
+    <t>The identifier of a specific version of a resource</t>
+  </si>
+  <si>
+    <t>The identifier of a specific version of a resource.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.version.description</t>
+  </si>
+  <si>
+    <t>The description of the resource version</t>
+  </si>
+  <si>
+    <t>The description of the resource version.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.containedInstance</t>
+  </si>
+  <si>
+    <t>Resources contained in the instance</t>
+  </si>
+  <si>
+    <t>Resources contained in the instance (e.g. the observations contained in a bundle).</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.containedInstance.id</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.containedInstance.extension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.containedInstance.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.containedInstance.resourceId</t>
+  </si>
+  <si>
+    <t>Each resource contained in the instance</t>
+  </si>
+  <si>
+    <t>Each resource contained in the instance.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.containedInstance.versionId</t>
+  </si>
+  <si>
+    <t>A specific version of a resource contained in the instance</t>
+  </si>
+  <si>
+    <t>A specific version of a resource contained in the instance.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process</t>
+  </si>
+  <si>
+    <t>Each major process - a group of operations</t>
+  </si>
+  <si>
+    <t>Each major process - a group of operations.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.id</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.extension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.extension:process</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ExampleScenario.instance.structureProfile[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Refers to a profile, template or other ruleset the instance adheres to.</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.instance.structureProfile[x]` is will have a context of ExampleScenario.instance based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.extension:content</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.instance.content from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Used when the target of the reference has a type that is not allowed by the definition of the element. In general, this should only arise when wrangling between versions using cross-version extensions.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.instance.content` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ExampleScenario.instance.content` is will have a context of ExampleScenario.instance based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.resourceId</t>
-  </si>
-  <si>
-    <t>The id of the resource for referencing</t>
-  </si>
-  <si>
-    <t>The id of the resource for referencing.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.resourceType</t>
-  </si>
-  <si>
-    <t>The type of the resource</t>
-  </si>
-  <si>
-    <t>The type of the resource.</t>
-  </si>
-  <si>
-    <t>The type of resource.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.resourceType.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.resourceType.extension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.resourceType.extension:structureType</t>
-  </si>
-  <si>
-    <t>structureType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance.structureType|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.instance.structureType from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A code indicating the kind of data structure (FHIR resource or some other standard) this is an instance of.</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.instance.structureType` is mapped to FHIR R4 element `ExampleScenario.instance.resourceType`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.resourceType.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.name</t>
-  </si>
-  <si>
-    <t>A short name for the resource instance</t>
-  </si>
-  <si>
-    <t>A short name for the resource instance.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.description</t>
-  </si>
-  <si>
-    <t>Human-friendly description of the resource instance</t>
-  </si>
-  <si>
-    <t>Human-friendly description of the resource instance.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.version</t>
-  </si>
-  <si>
-    <t>A specific version of the resource</t>
-  </si>
-  <si>
-    <t>A specific version of the resource.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.version.id</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.version.extension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.version.extension:title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance.version.title|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.instance.version.title from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short descriptive label the version to be used in tables or diagrams.</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.instance.version.title` is will have a context of ExampleScenario.instance.version based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.version.extension:content</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.instance.version.content from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.instance.version.content` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `ExampleScenario.instance.version.content` is will have a context of ExampleScenario.instance.version based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.version.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.version.versionId</t>
-  </si>
-  <si>
-    <t>The identifier of a specific version of a resource</t>
-  </si>
-  <si>
-    <t>The identifier of a specific version of a resource.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.version.description</t>
-  </si>
-  <si>
-    <t>The description of the resource version</t>
-  </si>
-  <si>
-    <t>The description of the resource version.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.containedInstance</t>
-  </si>
-  <si>
-    <t>Resources contained in the instance</t>
-  </si>
-  <si>
-    <t>Resources contained in the instance (e.g. the observations contained in a bundle).</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.containedInstance.id</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.containedInstance.extension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.containedInstance.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.containedInstance.resourceId</t>
-  </si>
-  <si>
-    <t>Each resource contained in the instance</t>
-  </si>
-  <si>
-    <t>Each resource contained in the instance.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.containedInstance.versionId</t>
-  </si>
-  <si>
-    <t>A specific version of a resource contained in the instance</t>
-  </si>
-  <si>
-    <t>A specific version of a resource contained in the instance.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process</t>
-  </si>
-  <si>
-    <t>Each major process - a group of operations</t>
-  </si>
-  <si>
-    <t>Each major process - a group of operations.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.id</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.extension</t>
+    <t>Cross-version extension for ExampleScenario.process from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A group of operations that represents a significant step within a scenario.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.process` has is mapped to FHIR R4 element `ExampleScenario.process`, but has no comparisons.
+Note available implied context: `ExampleScenario.process.step.process` because `ExampleScenario.process.step.process` is defined as a content reference to `ExampleScenario.process`.</t>
   </si>
   <si>
     <t>ExampleScenario.process.modifierExtension</t>
@@ -1274,47 +1208,6 @@
     <t>ExampleScenario.process.step.extension</t>
   </si>
   <si>
-    <t>ExampleScenario.process.step.extension:number</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process.step.number|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.process.step.number from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The sequential number of the step, e.g. 1.2.5.</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.process.step.number` is part of an existing definition because parent element `ExampleScenario.process.step` requires a component extension (e.g., if this element is used as a content reference).
-Element `ExampleScenario.process.step.number` is will have a context of ExampleScenario.process.step based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.extension:workflow</t>
-  </si>
-  <si>
-    <t>workflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-canonical|5.2.0}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.process.step.workflow from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for http://hl7.org/fhir/StructureDefinition/ExampleScenario in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.process.step.workflow` is part of an existing definition because parent element `ExampleScenario.process.step` requires a component extension (e.g., if this element is used as a content reference).
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.process.step.workflow` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
-Element `ExampleScenario.process.step.workflow` is will have a context of ExampleScenario.process.step based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
     <t>ExampleScenario.process.step.modifierExtension</t>
   </si>
   <si>
@@ -1372,43 +1265,6 @@
     <t>The type of operation - CRUD.</t>
   </si>
   <si>
-    <t>ExampleScenario.process.step.operation.type.id</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.type.extension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.type.extension:type</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process.step.operation.type|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.process.step.operation.type from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The standardized type of action (FHIR or otherwise).</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.process.step.operation.type` is mapped to FHIR R4 element `ExampleScenario.process.step.operation.type`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.type.value</t>
-  </si>
-  <si>
-    <t>Primitive value for string</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>1048576</t>
-  </si>
-  <si>
     <t>ExampleScenario.process.step.operation.name</t>
   </si>
   <si>
@@ -1472,40 +1328,6 @@
     <t>Each resource instance used by the initiator.</t>
   </si>
   <si>
-    <t>ExampleScenario.process.step.operation.request.id</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.request.extension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.request.extension:request</t>
-  </si>
-  <si>
-    <t>request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process.step.operation.request|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.process.step.operation.request from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A reference to the instance that is transmitted from requester to receiver as part of the invocation of the operation.</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.process.step.operation.request` is mapped to FHIR R4 element `ExampleScenario.process.step.operation.request`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.request.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.request.resourceId</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.request.versionId</t>
-  </si>
-  <si>
     <t>ExampleScenario.process.step.operation.response</t>
   </si>
   <si>
@@ -1513,40 +1335,6 @@
   </si>
   <si>
     <t>Each resource instance used by the responder.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.response.id</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.response.extension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.response.extension:response</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process.step.operation.response|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.process.step.operation.response from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A reference to the instance that is transmitted from receiver to requester as part of the operation's synchronous response (if any).</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.process.step.operation.response` is mapped to FHIR R4 element `ExampleScenario.process.step.operation.response`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.response.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.response.resourceId</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.operation.response.versionId</t>
   </si>
   <si>
     <t>ExampleScenario.process.step.alternative</t>
@@ -1911,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN118"/>
+  <dimension ref="A1:AN94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1920,8 +1708,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="57.53515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.2578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.2578125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
@@ -1930,7 +1718,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="108.54296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="96.125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5296,7 +5084,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5318,14 +5106,12 @@
         <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5362,19 +5148,17 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5398,19 +5182,21 @@
         <v>77</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="D31" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5423,26 +5209,24 @@
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>168</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5490,7 +5274,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5499,7 +5283,7 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>137</v>
@@ -5514,38 +5298,38 @@
         <v>77</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>284</v>
@@ -5554,9 +5338,11 @@
         <v>285</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O32" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5604,19 +5390,19 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5628,7 +5414,7 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33">
@@ -5659,7 +5445,7 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>288</v>
@@ -5667,7 +5453,9 @@
       <c r="M33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>290</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5692,13 +5480,13 @@
         <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>77</v>
@@ -5745,10 +5533,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5756,7 +5544,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5771,17 +5559,15 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="M34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>295</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5806,13 +5592,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5830,10 +5616,10 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>86</v>
@@ -5885,7 +5671,7 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>297</v>
@@ -5894,7 +5680,7 @@
         <v>298</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5973,10 +5759,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5987,7 +5773,7 @@
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5999,15 +5785,17 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6056,13 +5844,13 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
@@ -6085,10 +5873,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6099,7 +5887,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -6111,13 +5899,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6168,19 +5956,19 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>272</v>
+        <v>303</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -6192,15 +5980,15 @@
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6211,7 +5999,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6223,13 +6011,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>132</v>
+        <v>270</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6268,29 +6056,31 @@
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6302,19 +6092,17 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6323,7 +6111,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6335,17 +6123,15 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>306</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>307</v>
+        <v>132</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6382,19 +6168,17 @@
         <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6403,7 +6187,7 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>137</v>
@@ -6423,13 +6207,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6439,7 +6223,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6451,16 +6235,16 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6510,7 +6294,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6539,46 +6323,46 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
+        <v>284</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6626,7 +6410,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6650,51 +6434,47 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6742,19 +6522,19 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6766,15 +6546,15 @@
         <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6797,13 +6577,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6830,13 +6610,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>77</v>
+        <v>321</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6854,7 +6634,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6883,10 +6663,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6894,7 +6674,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>86</v>
@@ -6909,13 +6689,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6942,13 +6722,13 @@
         <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>330</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
@@ -6966,10 +6746,10 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>86</v>
@@ -6995,10 +6775,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7021,13 +6801,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7078,7 +6858,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7090,7 +6870,7 @@
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>77</v>
@@ -7107,10 +6887,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7118,7 +6898,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -7133,13 +6913,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>132</v>
+        <v>330</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7178,17 +6958,19 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7200,7 +6982,7 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -7217,20 +6999,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>86</v>
@@ -7245,17 +7025,15 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>337</v>
+        <v>186</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
@@ -7304,19 +7082,19 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>77</v>
@@ -7328,26 +7106,26 @@
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7359,15 +7137,17 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7416,19 +7196,19 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>343</v>
+        <v>275</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>77</v>
@@ -7440,47 +7220,51 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7528,19 +7312,19 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>77</v>
@@ -7552,15 +7336,15 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7568,7 +7352,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>86</v>
@@ -7583,13 +7367,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7640,10 +7424,10 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>86</v>
@@ -7669,10 +7453,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7680,10 +7464,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7695,13 +7479,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7752,13 +7536,13 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
@@ -7781,10 +7565,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7795,7 +7579,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7807,13 +7591,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>270</v>
+        <v>344</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7864,19 +7648,19 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7888,15 +7672,15 @@
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7904,10 +7688,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7919,13 +7703,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>132</v>
+        <v>270</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7964,29 +7748,31 @@
         <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7998,28 +7784,26 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -8031,16 +7815,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>356</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>359</v>
+        <v>167</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8090,7 +7874,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8099,7 +7883,7 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>137</v>
@@ -8114,51 +7898,51 @@
         <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>318</v>
+        <v>131</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>284</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>320</v>
+        <v>285</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8206,7 +7990,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8230,51 +8014,47 @@
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>280</v>
+        <v>350</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8322,19 +8102,19 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>282</v>
+        <v>349</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8346,15 +8126,15 @@
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8362,7 +8142,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>86</v>
@@ -8380,10 +8160,10 @@
         <v>186</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8434,10 +8214,10 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>86</v>
@@ -8463,10 +8243,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8474,10 +8254,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8489,13 +8269,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8546,13 +8326,13 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
@@ -8575,10 +8355,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8589,7 +8369,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8601,13 +8381,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>371</v>
+        <v>270</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>372</v>
+        <v>271</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8658,19 +8438,19 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>370</v>
+        <v>272</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8682,15 +8462,15 @@
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8701,7 +8481,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8713,13 +8493,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>271</v>
+        <v>133</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8758,31 +8538,29 @@
         <v>77</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8794,19 +8572,21 @@
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="D61" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8825,16 +8605,16 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>131</v>
+        <v>362</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>275</v>
+        <v>363</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>276</v>
+        <v>364</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>167</v>
+        <v>365</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8884,7 +8664,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8893,7 +8673,7 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>137</v>
@@ -8908,19 +8688,19 @@
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8942,10 +8722,10 @@
         <v>131</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="N62" t="s" s="2">
         <v>167</v>
@@ -9000,7 +8780,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9029,10 +8809,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9052,16 +8832,16 @@
         <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
         <v>186</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9112,7 +8892,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -9141,10 +8921,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9167,13 +8947,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9224,7 +9004,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9253,10 +9033,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9267,7 +9047,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9279,13 +9059,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9336,13 +9116,13 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
@@ -9365,10 +9145,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9391,13 +9171,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>270</v>
+        <v>377</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>271</v>
+        <v>378</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9448,7 +9228,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>272</v>
+        <v>376</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9460,7 +9240,7 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>77</v>
@@ -9472,19 +9252,19 @@
         <v>77</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9503,17 +9283,15 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>131</v>
+        <v>266</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9562,7 +9340,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>277</v>
+        <v>379</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9574,7 +9352,7 @@
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9586,51 +9364,47 @@
         <v>77</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9678,19 +9452,19 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>77</v>
@@ -9702,26 +9476,26 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>129</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9730,18 +9504,20 @@
         <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9790,19 +9566,19 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>388</v>
+        <v>275</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -9814,47 +9590,51 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>253</v>
+        <v>131</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>392</v>
+        <v>284</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9902,19 +9682,19 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>391</v>
+        <v>286</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
@@ -9926,15 +9706,15 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9945,7 +9725,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
@@ -9957,13 +9737,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10014,13 +9794,13 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
@@ -10043,10 +9823,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10069,13 +9849,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10126,7 +9906,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10155,10 +9935,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10169,7 +9949,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -10184,10 +9964,10 @@
         <v>266</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10238,13 +10018,13 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
@@ -10267,10 +10047,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10379,14 +10159,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10408,12 +10188,14 @@
         <v>131</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>132</v>
+        <v>334</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>335</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10450,17 +10232,19 @@
         <v>77</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC75" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10484,51 +10268,51 @@
         <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C76" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>407</v>
+        <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>408</v>
+        <v>284</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>409</v>
+        <v>285</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10576,7 +10360,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10585,7 +10369,7 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>137</v>
@@ -10600,25 +10384,23 @@
         <v>77</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>86</v>
@@ -10633,17 +10415,15 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>413</v>
+        <v>186</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
@@ -10692,19 +10472,19 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>277</v>
+        <v>397</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
@@ -10721,46 +10501,42 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>280</v>
+        <v>401</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>77</v>
       </c>
@@ -10808,19 +10584,19 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>282</v>
+        <v>400</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>77</v>
@@ -10832,15 +10608,15 @@
         <v>77</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10851,7 +10627,7 @@
         <v>78</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>77</v>
@@ -10863,13 +10639,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>80</v>
+        <v>186</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10920,13 +10696,13 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>77</v>
@@ -10949,10 +10725,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10975,13 +10751,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11032,7 +10808,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11061,10 +10837,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11087,13 +10863,13 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11144,7 +10920,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11173,10 +10949,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11199,13 +10975,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>270</v>
+        <v>413</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>271</v>
+        <v>414</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11256,7 +11032,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>272</v>
+        <v>412</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11268,7 +11044,7 @@
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
@@ -11280,26 +11056,26 @@
         <v>77</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11311,17 +11087,15 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>275</v>
+        <v>416</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -11370,19 +11144,19 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>277</v>
+        <v>415</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
@@ -11394,51 +11168,47 @@
         <v>77</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>273</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>131</v>
+        <v>208</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>280</v>
+        <v>419</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11486,19 +11256,19 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>282</v>
+        <v>418</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>77</v>
@@ -11510,15 +11280,15 @@
         <v>77</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11526,7 +11296,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>86</v>
@@ -11541,13 +11311,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11598,10 +11368,10 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>86</v>
@@ -11627,10 +11397,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11653,13 +11423,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11710,7 +11480,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11739,10 +11509,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11753,7 +11523,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11765,13 +11535,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>186</v>
+        <v>266</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>332</v>
+        <v>428</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11822,19 +11592,19 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>272</v>
+        <v>427</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>77</v>
@@ -11851,10 +11621,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11865,7 +11635,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -11877,13 +11647,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>131</v>
+        <v>186</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>132</v>
+        <v>270</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>133</v>
+        <v>271</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11922,29 +11692,31 @@
         <v>77</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC88" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
@@ -11956,28 +11728,26 @@
         <v>77</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>77</v>
@@ -11989,16 +11759,16 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>440</v>
+        <v>131</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>441</v>
+        <v>334</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>442</v>
+        <v>335</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>443</v>
+        <v>167</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -12048,7 +11818,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12057,7 +11827,7 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>137</v>
@@ -12072,47 +11842,51 @@
         <v>77</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>77</v>
+        <v>273</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>77</v>
+        <v>283</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>186</v>
+        <v>131</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>445</v>
+        <v>284</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12133,7 +11907,7 @@
         <v>77</v>
       </c>
       <c r="W90" t="s" s="2">
-        <v>447</v>
+        <v>77</v>
       </c>
       <c r="X90" t="s" s="2">
         <v>77</v>
@@ -12160,19 +11934,19 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
@@ -12184,15 +11958,15 @@
         <v>77</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12200,7 +11974,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>86</v>
@@ -12218,10 +11992,10 @@
         <v>186</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12272,10 +12046,10 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>86</v>
@@ -12301,10 +12075,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12327,13 +12101,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>186</v>
+        <v>253</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12384,7 +12158,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12413,10 +12187,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12427,7 +12201,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>77</v>
@@ -12439,13 +12213,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12496,13 +12270,13 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>77</v>
@@ -12525,10 +12299,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12539,7 +12313,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
@@ -12551,13 +12325,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>253</v>
+        <v>443</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12608,13 +12382,13 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>77</v>
@@ -12632,2712 +12406,6 @@
         <v>77</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B95" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C95" s="2"/>
-      <c r="D95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E95" s="2"/>
-      <c r="F95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K95" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q95" s="2"/>
-      <c r="R95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN95" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B96" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E96" s="2"/>
-      <c r="F96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q96" s="2"/>
-      <c r="R96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF96" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AG96" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH96" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM96" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN96" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="B97" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E97" s="2"/>
-      <c r="F97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K97" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q97" s="2"/>
-      <c r="R97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF97" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E98" s="2"/>
-      <c r="F98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K98" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q98" s="2"/>
-      <c r="R98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM98" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC99" s="2"/>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="D100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC106" s="2"/>
-      <c r="AD106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="D107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O107" s="2"/>
-      <c r="P107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E110" s="2"/>
-      <c r="F110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q110" s="2"/>
-      <c r="R110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM110" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E111" s="2"/>
-      <c r="F111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q111" s="2"/>
-      <c r="R111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM111" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN111" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B112" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E112" s="2"/>
-      <c r="F112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q112" s="2"/>
-      <c r="R112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B113" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="E113" s="2"/>
-      <c r="F113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O113" s="2"/>
-      <c r="P113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q113" s="2"/>
-      <c r="R113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="B114" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="E114" s="2"/>
-      <c r="F114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M114" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="P114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q114" s="2"/>
-      <c r="R114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM114" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN118" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-ExampleScenario.xlsx
+++ b/StructureDefinition-profile-ExampleScenario.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.808686-06:00</t>
+    <t>2026-02-20T11:59:20.8088989-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExampleScenario|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ExampleScenario</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,13 +443,73 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>ExampleScenario.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `ExampleScenario.copyrightLabel` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.extension:description</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-description}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.description from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A free text natural language description of the artifact from a consumer's perspective.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.description`: `http://hl7.org/fhir/StructureDefinition/artifact-description`.
+Element `ExampleScenario.description` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.extension:title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-title}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.title from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short, descriptive, user-friendly title for the artifact.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.
+Element `ExampleScenario.title` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+  </si>
+  <si>
     <t>ExampleScenario.extension:versionAlgorithm</t>
   </si>
   <si>
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
@@ -459,68 +519,8 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `ExampleScenario.versionAlgorithm[x]` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ExampleScenario.extension:title</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.title|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.title from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the ExampleScenario.</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.title` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.extension:description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.description|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.description from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A free text natural language description of the ExampleScenario from a consumer's perspective.</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.description` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.copyrightLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.copyrightLabel` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `ExampleScenario.versionAlgorithm[x]` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
   </si>
   <si>
     <t>ExampleScenario.modifierExtension</t>
@@ -884,7 +884,7 @@
     <t>actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.actor|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.actor}
 </t>
   </si>
   <si>
@@ -895,6 +895,10 @@
   </si>
   <si>
     <t>Element `ExampleScenario.actor` has is mapped to FHIR R4 element `ExampleScenario.actor`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>ExampleScenario.actor.modifierExtension</t>
@@ -983,7 +987,7 @@
     <t>instance</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance}
 </t>
   </si>
   <si>
@@ -1140,7 +1144,7 @@
     <t>process</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process}
 </t>
   </si>
   <si>
@@ -1718,7 +1722,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="74.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2873,7 +2877,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
@@ -2893,13 +2897,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
@@ -2921,16 +2925,16 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2989,7 +2993,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>137</v>
@@ -3009,13 +3013,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>77</v>
@@ -3037,16 +3041,16 @@
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3105,7 +3109,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>137</v>
@@ -3125,13 +3129,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>77</v>
@@ -3153,16 +3157,16 @@
         <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3221,7 +3225,7 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>137</v>
@@ -3241,14 +3245,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3270,16 +3274,16 @@
         <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3328,7 +3332,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3357,10 +3361,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3386,16 +3390,16 @@
         <v>100</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3444,7 +3448,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3459,10 +3463,10 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3473,10 +3477,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3499,19 +3503,19 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3560,7 +3564,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3575,13 +3579,13 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3589,10 +3593,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3615,16 +3619,16 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3674,7 +3678,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3689,10 +3693,10 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3703,10 +3707,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3729,19 +3733,19 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3790,7 +3794,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3799,7 +3803,7 @@
         <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>98</v>
@@ -3819,10 +3823,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3848,13 +3852,13 @@
         <v>106</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3880,14 +3884,14 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3904,7 +3908,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>86</v>
@@ -3919,10 +3923,10 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3933,10 +3937,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3959,19 +3963,19 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4020,7 +4024,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4035,10 +4039,10 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4049,14 +4053,14 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4075,16 +4079,16 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4134,7 +4138,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4149,10 +4153,10 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4163,10 +4167,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4189,19 +4193,19 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4250,7 +4254,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4265,10 +4269,10 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4279,10 +4283,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4305,16 +4309,16 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4364,7 +4368,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4379,7 +4383,7 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4393,10 +4397,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4419,19 +4423,19 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4480,7 +4484,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4495,7 +4499,7 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4509,10 +4513,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4535,16 +4539,16 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4570,14 +4574,14 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>249</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4594,7 +4598,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4609,7 +4613,7 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
@@ -4623,14 +4627,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4649,19 +4653,19 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>257</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4710,7 +4714,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4725,13 +4729,13 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4739,10 +4743,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4765,16 +4769,16 @@
         <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4824,7 +4828,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4839,13 +4843,13 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>264</v>
-      </c>
       <c r="AM27" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -4853,10 +4857,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4879,13 +4883,13 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4936,7 +4940,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4965,10 +4969,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4991,13 +4995,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5048,39 +5052,39 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5158,7 +5162,7 @@
         <v>135</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5187,13 +5191,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C31" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
@@ -5215,16 +5219,16 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5274,7 +5278,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5283,7 +5287,7 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>137</v>
@@ -5338,10 +5342,10 @@
         <v>285</v>
       </c>
       <c r="N32" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O32" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5445,7 +5449,7 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>288</v>
@@ -5592,7 +5596,7 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>294</v>
@@ -5671,7 +5675,7 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>297</v>
@@ -5785,7 +5789,7 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>301</v>
@@ -5899,7 +5903,7 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>304</v>
@@ -6011,13 +6015,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6068,31 +6072,31 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="39">
@@ -6178,7 +6182,7 @@
         <v>135</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6294,7 +6298,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6303,7 +6307,7 @@
         <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>137</v>
@@ -6358,10 +6362,10 @@
         <v>285</v>
       </c>
       <c r="N41" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6465,7 +6469,7 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>316</v>
@@ -6610,7 +6614,7 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Y43" t="s" s="2">
         <v>321</v>
@@ -6689,7 +6693,7 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>324</v>
@@ -6801,7 +6805,7 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>327</v>
@@ -6913,7 +6917,7 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>330</v>
@@ -7025,13 +7029,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7082,31 +7086,31 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="48">
@@ -7118,7 +7122,7 @@
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7146,7 +7150,7 @@
         <v>335</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7196,7 +7200,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7220,7 +7224,7 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49">
@@ -7260,10 +7264,10 @@
         <v>285</v>
       </c>
       <c r="N49" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O49" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7367,7 +7371,7 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>338</v>
@@ -7479,7 +7483,7 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>341</v>
@@ -7591,7 +7595,7 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L52" t="s" s="2">
         <v>344</v>
@@ -7703,13 +7707,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7760,31 +7764,31 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="54">
@@ -7796,7 +7800,7 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7824,7 +7828,7 @@
         <v>335</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7874,7 +7878,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7898,7 +7902,7 @@
         <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55">
@@ -7938,10 +7942,10 @@
         <v>285</v>
       </c>
       <c r="N55" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8045,7 +8049,7 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>350</v>
@@ -8157,7 +8161,7 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>353</v>
@@ -8269,7 +8273,7 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>356</v>
@@ -8381,13 +8385,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8438,31 +8442,31 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="60">
@@ -8548,7 +8552,7 @@
         <v>135</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8664,7 +8668,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8673,7 +8677,7 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>137</v>
@@ -8728,10 +8732,10 @@
         <v>285</v>
       </c>
       <c r="N62" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O62" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8835,7 +8839,7 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>368</v>
@@ -8947,7 +8951,7 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>371</v>
@@ -9059,7 +9063,7 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>374</v>
@@ -9171,7 +9175,7 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L66" t="s" s="2">
         <v>377</v>
@@ -9283,7 +9287,7 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>380</v>
@@ -9395,13 +9399,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9452,31 +9456,31 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="69">
@@ -9488,7 +9492,7 @@
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9516,7 +9520,7 @@
         <v>335</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9566,7 +9570,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9590,7 +9594,7 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70">
@@ -9630,10 +9634,10 @@
         <v>285</v>
       </c>
       <c r="N70" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O70" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9849,7 +9853,7 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>389</v>
@@ -9961,7 +9965,7 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>392</v>
@@ -10073,13 +10077,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10130,31 +10134,31 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="75">
@@ -10166,7 +10170,7 @@
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10194,7 +10198,7 @@
         <v>335</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10244,7 +10248,7 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10268,7 +10272,7 @@
         <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76">
@@ -10308,10 +10312,10 @@
         <v>285</v>
       </c>
       <c r="N76" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O76" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10415,7 +10419,7 @@
         <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>398</v>
@@ -10527,7 +10531,7 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L78" t="s" s="2">
         <v>401</v>
@@ -10639,7 +10643,7 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L79" t="s" s="2">
         <v>404</v>
@@ -10751,7 +10755,7 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>407</v>
@@ -10863,7 +10867,7 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>410</v>
@@ -10975,7 +10979,7 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>413</v>
@@ -11087,7 +11091,7 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>416</v>
@@ -11199,7 +11203,7 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>419</v>
@@ -11535,7 +11539,7 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>428</v>
@@ -11647,13 +11651,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11704,31 +11708,31 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN88" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="89">
@@ -11740,7 +11744,7 @@
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11768,7 +11772,7 @@
         <v>335</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
@@ -11818,7 +11822,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -11842,7 +11846,7 @@
         <v>77</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90">
@@ -11882,10 +11886,10 @@
         <v>285</v>
       </c>
       <c r="N90" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O90" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11989,7 +11993,7 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>434</v>
@@ -12101,7 +12105,7 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>437</v>

--- a/StructureDefinition-profile-ExampleScenario.xlsx
+++ b/StructureDefinition-profile-ExampleScenario.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3567" uniqueCount="454">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8088989-06:00</t>
+    <t>2026-02-21T13:36:54.226742-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/ExampleScenario</t>
+    <t>http://hl7.org/fhir/StructureDefinition/ExampleScenario|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -419,21 +419,21 @@
     <t>ExampleScenario.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -443,91 +443,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>ExampleScenario.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `ExampleScenario.copyrightLabel` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.extension:description</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-description}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.description from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A free text natural language description of the artifact from a consumer's perspective.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.description`: `http://hl7.org/fhir/StructureDefinition/artifact-description`.
-Element `ExampleScenario.description` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.extension:title</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-title}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.title from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short, descriptive, user-friendly title for the artifact.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.title`: `http://hl7.org/fhir/StructureDefinition/artifact-title`.
-Element `ExampleScenario.title` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for ExampleScenario.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ExampleScenario.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `ExampleScenario.versionAlgorithm[x]` has a context of ExampleScenario based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
-  </si>
-  <si>
     <t>ExampleScenario.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -535,9 +451,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -875,129 +788,145 @@
     <t>ExampleScenario.actor.extension</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ExampleScenario.actor.extension:actor</t>
-  </si>
-  <si>
-    <t>actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.actor}
+    <t>ExampleScenario.actor.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.actor.actorId</t>
+  </si>
+  <si>
+    <t>ID or acronym of the actor</t>
+  </si>
+  <si>
+    <t>ID or acronym of actor.</t>
+  </si>
+  <si>
+    <t>should this be called ID or acronym?</t>
+  </si>
+  <si>
+    <t>ExampleScenario.actor.type</t>
+  </si>
+  <si>
+    <t>person | entity</t>
+  </si>
+  <si>
+    <t>The type of actor - person or system.</t>
+  </si>
+  <si>
+    <t>The type of actor - system or human.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/examplescenario-actor-type|4.0.1</t>
+  </si>
+  <si>
+    <t>ExampleScenario.actor.name</t>
+  </si>
+  <si>
+    <t>The name of the actor as shown in the page</t>
+  </si>
+  <si>
+    <t>The name of the actor as shown in the page.</t>
+  </si>
+  <si>
+    <t>Cardinality: is name and description 1..1?</t>
+  </si>
+  <si>
+    <t>ExampleScenario.actor.description</t>
+  </si>
+  <si>
+    <t>The description of the actor</t>
+  </si>
+  <si>
+    <t>The description of the actor.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance</t>
+  </si>
+  <si>
+    <t>Each resource and each version that is present in the workflow</t>
+  </si>
+  <si>
+    <t>Each resource and each version that is present in the workflow.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.id</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ExampleScenario.actor from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A system or person who shares or receives an instance within the scenario.</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.actor` has is mapped to FHIR R4 element `ExampleScenario.actor`, but has no comparisons.</t>
+    <t>open</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.extension:structureVersion</t>
+  </si>
+  <si>
+    <t>structureVersion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance.structureVersion|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.instance.structureVersion from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Conveys the version of the data structure instantiated.  I.e. what release of FHIR, X12, OpenEHR, etc. is instance compliant with.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.instance.structureVersion` has a context of ExampleScenario.instance based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>ExampleScenario.actor.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.actor.actorId</t>
-  </si>
-  <si>
-    <t>ID or acronym of the actor</t>
-  </si>
-  <si>
-    <t>ID or acronym of actor.</t>
-  </si>
-  <si>
-    <t>should this be called ID or acronym?</t>
-  </si>
-  <si>
-    <t>ExampleScenario.actor.type</t>
-  </si>
-  <si>
-    <t>person | entity</t>
-  </si>
-  <si>
-    <t>The type of actor - person or system.</t>
-  </si>
-  <si>
-    <t>The type of actor - system or human.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/examplescenario-actor-type|4.0.1</t>
-  </si>
-  <si>
-    <t>ExampleScenario.actor.name</t>
-  </si>
-  <si>
-    <t>The name of the actor as shown in the page</t>
-  </si>
-  <si>
-    <t>The name of the actor as shown in the page.</t>
-  </si>
-  <si>
-    <t>Cardinality: is name and description 1..1?</t>
-  </si>
-  <si>
-    <t>ExampleScenario.actor.description</t>
-  </si>
-  <si>
-    <t>The description of the actor</t>
-  </si>
-  <si>
-    <t>The description of the actor.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance</t>
-  </si>
-  <si>
-    <t>Each resource and each version that is present in the workflow</t>
-  </si>
-  <si>
-    <t>Each resource and each version that is present in the workflow.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.id</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.extension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.instance.extension:instance</t>
-  </si>
-  <si>
-    <t>instance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance}
+    <t>ExampleScenario.instance.extension:structureProfile</t>
+  </si>
+  <si>
+    <t>structureProfile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance.structureProfile|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ExampleScenario.instance from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A single data collection that is shared as part of the scenario.</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.instance` has is mapped to FHIR R4 element `ExampleScenario.instance`, but has no comparisons.</t>
+    <t>Cross-version extension for ExampleScenario.instance.structureProfile[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Refers to a profile, template or other ruleset the instance adheres to.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.instance.structureProfile[x]` has a context of ExampleScenario.instance based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
   </si>
   <si>
     <t>ExampleScenario.instance.modifierExtension</t>
@@ -1027,6 +956,46 @@
     <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
+    <t>ExampleScenario.instance.resourceType.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.resourceType.extension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.resourceType.extension:structureType</t>
+  </si>
+  <si>
+    <t>structureType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance.structureType|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.instance.structureType from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A code indicating the kind of data structure (FHIR resource or some other standard) this is an instance of.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.instance.structureType` is mapped to FHIR R4 element `ExampleScenario.instance.resourceType` as `RelatedTo`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.instance.resourceType.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
     <t>ExampleScenario.instance.name</t>
   </si>
   <si>
@@ -1060,10 +1029,23 @@
     <t>ExampleScenario.instance.version.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>ExampleScenario.instance.version.extension:title</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.instance.version.title|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.instance.version.title from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short descriptive label the version to be used in tables or diagrams.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.instance.version.title` has a context of ExampleScenario.instance.version based on following the parent source element upwards and mapping to `ExampleScenario`.</t>
   </si>
   <si>
     <t>ExampleScenario.instance.version.modifierExtension</t>
@@ -1138,78 +1120,78 @@
     <t>ExampleScenario.process.extension</t>
   </si>
   <si>
-    <t>ExampleScenario.process.extension:process</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process}
+    <t>ExampleScenario.process.modifierExtension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.title</t>
+  </si>
+  <si>
+    <t>The diagram title of the group of operations</t>
+  </si>
+  <si>
+    <t>The diagram title of the group of operations.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.description</t>
+  </si>
+  <si>
+    <t>A longer description of the group of operations</t>
+  </si>
+  <si>
+    <t>A longer description of the group of operations.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.preConditions</t>
+  </si>
+  <si>
+    <t>Description of initial status before the process starts</t>
+  </si>
+  <si>
+    <t>Description of initial status before the process starts.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.postConditions</t>
+  </si>
+  <si>
+    <t>Description of final status after the process ends</t>
+  </si>
+  <si>
+    <t>Description of final status after the process ends.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.step</t>
+  </si>
+  <si>
+    <t>Each step of the process</t>
+  </si>
+  <si>
+    <t>Each step of the process.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.step.id</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.step.extension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.step.extension:number</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process.step.number|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for ExampleScenario.process from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A group of operations that represents a significant step within a scenario.</t>
-  </si>
-  <si>
-    <t>Element `ExampleScenario.process` has is mapped to FHIR R4 element `ExampleScenario.process`, but has no comparisons.
-Note available implied context: `ExampleScenario.process.step.process` because `ExampleScenario.process.step.process` is defined as a content reference to `ExampleScenario.process`.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.modifierExtension</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.title</t>
-  </si>
-  <si>
-    <t>The diagram title of the group of operations</t>
-  </si>
-  <si>
-    <t>The diagram title of the group of operations.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.description</t>
-  </si>
-  <si>
-    <t>A longer description of the group of operations</t>
-  </si>
-  <si>
-    <t>A longer description of the group of operations.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.preConditions</t>
-  </si>
-  <si>
-    <t>Description of initial status before the process starts</t>
-  </si>
-  <si>
-    <t>Description of initial status before the process starts.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.postConditions</t>
-  </si>
-  <si>
-    <t>Description of final status after the process ends</t>
-  </si>
-  <si>
-    <t>Description of final status after the process ends.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step</t>
-  </si>
-  <si>
-    <t>Each step of the process</t>
-  </si>
-  <si>
-    <t>Each step of the process.</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.id</t>
-  </si>
-  <si>
-    <t>ExampleScenario.process.step.extension</t>
+    <t>Cross-version extension for ExampleScenario.process.step.number from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The sequential number of the step, e.g. 1.2.5.</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.process.step.number` has a context of ExampleScenario.process.step based on following the parent source element upwards and mapping to `ExampleScenario`.
+Note available implied context: `ExampleScenario.process.step.alternative.step` because `ExampleScenario.process.step.alternative.step` is defined via a content reference to `ExampleScenario.process.step`.</t>
   </si>
   <si>
     <t>ExampleScenario.process.step.modifierExtension</t>
@@ -1267,6 +1249,44 @@
   </si>
   <si>
     <t>The type of operation - CRUD.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.step.operation.type.id</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.step.operation.type.extension</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.step.operation.type.extension:type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-ExampleScenario.process.step.operation.type|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for ExampleScenario.process.step.operation.type from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The standardized type of action (FHIR or otherwise).</t>
+  </si>
+  <si>
+    <t>Element `ExampleScenario.process.step.operation.type` is mapped to FHIR R4 element `ExampleScenario.process.step.operation.type` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.
+Note available implied context: `ExampleScenario.process.step.alternative.step.operation.type` because `ExampleScenario.process.step.alternative.step` is defined via a content reference to `ExampleScenario.process.step`.</t>
+  </si>
+  <si>
+    <t>ExampleScenario.process.step.operation.type.value</t>
+  </si>
+  <si>
+    <t>Primitive value for string</t>
+  </si>
+  <si>
+    <t>The actual value</t>
+  </si>
+  <si>
+    <t>1048576</t>
   </si>
   <si>
     <t>ExampleScenario.process.step.operation.name</t>
@@ -1703,7 +1723,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN94"/>
+  <dimension ref="A1:AN99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1712,9 +1732,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.2578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.3125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="52.2578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.37890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1722,7 +1742,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.58984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.80859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2678,7 +2698,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2697,15 +2717,17 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2742,14 +2764,16 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2776,7 +2800,7 @@
         <v>77</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -2784,43 +2808,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2868,7 +2892,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2892,19 +2916,17 @@
         <v>77</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2922,21 +2944,23 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2984,25 +3008,25 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -3016,11 +3040,9 @@
         <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3029,7 +3051,7 @@
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
@@ -3038,21 +3060,23 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="N12" t="s" s="2">
+      <c r="O12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3100,7 +3124,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3112,16 +3136,16 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3129,14 +3153,12 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
         <v>77</v>
       </c>
@@ -3154,19 +3176,19 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3216,25 +3238,25 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3245,45 +3267,45 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J14" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>77</v>
@@ -3332,19 +3354,19 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>77</v>
@@ -3356,15 +3378,15 @@
         <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3372,7 +3394,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3381,26 +3403,24 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3424,13 +3444,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3448,10 +3468,10 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3463,10 +3483,10 @@
         <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3477,10 +3497,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3491,7 +3511,7 @@
         <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>77</v>
@@ -3503,19 +3523,19 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3564,13 +3584,13 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>77</v>
@@ -3579,13 +3599,13 @@
         <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3593,14 +3613,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3619,16 +3639,16 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3678,7 +3698,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -3693,10 +3713,10 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3707,10 +3727,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3733,19 +3753,19 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
@@ -3794,7 +3814,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3803,16 +3823,16 @@
         <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -3823,10 +3843,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3834,31 +3854,31 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3884,37 +3904,37 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -3923,10 +3943,10 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -3937,10 +3957,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3951,7 +3971,7 @@
         <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>77</v>
@@ -3963,19 +3983,19 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4024,13 +4044,13 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>77</v>
@@ -4039,10 +4059,10 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4053,21 +4073,21 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4079,16 +4099,16 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4114,13 +4134,13 @@
         <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>77</v>
@@ -4138,13 +4158,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -4153,10 +4173,10 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4167,14 +4187,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4190,22 +4210,22 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>77</v>
@@ -4254,7 +4274,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4269,13 +4289,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4283,10 +4303,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4297,7 +4317,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4306,19 +4326,19 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4368,13 +4388,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4383,13 +4403,13 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>237</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4397,10 +4417,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4420,23 +4440,19 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4484,7 +4500,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4499,7 +4515,7 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4513,10 +4529,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4527,7 +4543,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4536,10 +4552,10 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>159</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>243</v>
@@ -4547,9 +4563,7 @@
       <c r="M25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="N25" t="s" s="2">
-        <v>245</v>
-      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4574,74 +4588,74 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>251</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>77</v>
@@ -4653,20 +4667,18 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4714,73 +4726,75 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4828,39 +4842,39 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>263</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4868,10 +4882,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4883,15 +4897,17 @@
         <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4940,13 +4956,13 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>77</v>
@@ -4969,10 +4985,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4980,7 +4996,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>86</v>
@@ -4995,13 +5011,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5028,13 +5044,13 @@
         <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>77</v>
@@ -5052,10 +5068,10 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>86</v>
@@ -5064,7 +5080,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>77</v>
@@ -5076,15 +5092,15 @@
         <v>77</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5095,7 +5111,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5107,15 +5123,17 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>132</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5152,29 +5170,31 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>77</v>
@@ -5191,14 +5211,12 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>276</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5207,7 +5225,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5219,16 +5237,16 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5278,19 +5296,19 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5307,14 +5325,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5327,26 +5345,22 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>131</v>
+        <v>239</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5394,7 +5408,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5406,7 +5420,7 @@
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5418,15 +5432,15 @@
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5434,7 +5448,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
@@ -5449,17 +5463,15 @@
         <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5508,10 +5520,10 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>86</v>
@@ -5520,7 +5532,7 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>77</v>
@@ -5532,15 +5544,15 @@
         <v>77</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5548,10 +5560,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5563,13 +5575,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5596,43 +5608,41 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>295</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>77</v>
@@ -5649,12 +5659,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5675,16 +5687,16 @@
         <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5734,19 +5746,19 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>77</v>
@@ -5763,12 +5775,14 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="D36" t="s" s="2">
         <v>77</v>
       </c>
@@ -5789,16 +5803,16 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5848,19 +5862,19 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>77</v>
@@ -5877,14 +5891,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5897,22 +5911,26 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>265</v>
+        <v>132</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>252</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5960,7 +5978,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>303</v>
+        <v>254</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5972,7 +5990,7 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>77</v>
@@ -5984,15 +6002,15 @@
         <v>77</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6000,7 +6018,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>86</v>
@@ -6015,13 +6033,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>270</v>
+        <v>296</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6072,10 +6090,10 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>86</v>
@@ -6084,7 +6102,7 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6096,15 +6114,15 @@
         <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6112,10 +6130,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6127,13 +6145,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6160,41 +6178,43 @@
         <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>301</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC39" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6211,14 +6231,12 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6227,7 +6245,7 @@
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
@@ -6239,17 +6257,15 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>310</v>
+        <v>159</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6298,19 +6314,19 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>77</v>
@@ -6327,18 +6343,18 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -6347,26 +6363,22 @@
         <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
       </c>
@@ -6402,19 +6414,17 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6438,17 +6448,19 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>307</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6469,15 +6481,17 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>185</v>
+        <v>308</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6526,19 +6540,19 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>315</v>
+        <v>249</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6555,10 +6569,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6566,7 +6580,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>86</v>
@@ -6581,13 +6595,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6614,13 +6628,13 @@
         <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>322</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>77</v>
@@ -6638,10 +6652,10 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>86</v>
@@ -6650,7 +6664,7 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6667,10 +6681,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6693,13 +6707,13 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6750,7 +6764,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6779,10 +6793,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6805,13 +6819,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6862,7 +6876,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6891,10 +6905,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6917,13 +6931,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6974,7 +6988,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7003,10 +7017,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7029,13 +7043,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7086,7 +7100,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7110,23 +7124,23 @@
         <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -7141,17 +7155,15 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>334</v>
+        <v>276</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7188,19 +7200,17 @@
         <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AC48" s="2"/>
       <c r="AD48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7224,51 +7234,51 @@
         <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>325</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="D49" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>328</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7316,7 +7326,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7325,7 +7335,7 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>137</v>
@@ -7340,47 +7350,51 @@
         <v>77</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>338</v>
+        <v>252</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7428,19 +7442,19 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>337</v>
+        <v>254</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>77</v>
@@ -7452,15 +7466,15 @@
         <v>77</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7483,13 +7497,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>252</v>
+        <v>159</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7540,7 +7554,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -7569,10 +7583,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7580,10 +7594,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -7595,13 +7609,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7652,13 +7666,13 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
@@ -7681,10 +7695,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7695,7 +7709,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7707,13 +7721,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>269</v>
+        <v>340</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>270</v>
+        <v>341</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7764,19 +7778,19 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7788,26 +7802,26 @@
         <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7819,17 +7833,15 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>77</v>
@@ -7878,19 +7890,19 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7902,19 +7914,19 @@
         <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -7927,26 +7939,24 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7994,7 +8004,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8018,47 +8028,51 @@
         <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>129</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8106,19 +8120,19 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>349</v>
+        <v>254</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8130,15 +8144,15 @@
         <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8146,7 +8160,7 @@
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>86</v>
@@ -8161,13 +8175,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8218,10 +8232,10 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>86</v>
@@ -8247,10 +8261,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8261,7 +8275,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8273,13 +8287,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8330,13 +8344,13 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
@@ -8359,10 +8373,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8373,7 +8387,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8385,13 +8399,13 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>269</v>
+        <v>352</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>270</v>
+        <v>353</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8442,19 +8456,19 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>271</v>
+        <v>351</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>77</v>
@@ -8466,15 +8480,15 @@
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8485,7 +8499,7 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
@@ -8497,13 +8511,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8542,29 +8556,31 @@
         <v>77</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>77</v>
@@ -8576,21 +8592,19 @@
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -8609,16 +8623,16 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>362</v>
+        <v>132</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>363</v>
+        <v>133</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>364</v>
+        <v>248</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>365</v>
+        <v>135</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8668,7 +8682,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8677,7 +8691,7 @@
         <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>137</v>
@@ -8692,19 +8706,19 @@
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8723,19 +8737,19 @@
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
@@ -8784,7 +8798,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8813,10 +8827,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8839,13 +8853,13 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8896,7 +8910,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -8925,10 +8939,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8951,13 +8965,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9008,7 +9022,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9037,10 +9051,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9063,13 +9077,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9120,7 +9134,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9149,10 +9163,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9175,13 +9189,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9232,7 +9246,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9261,10 +9275,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9287,13 +9301,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9344,7 +9358,7 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9373,10 +9387,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9399,13 +9413,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>269</v>
+        <v>243</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9456,7 +9470,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9480,19 +9494,19 @@
         <v>77</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9511,17 +9525,15 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>334</v>
+        <v>276</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9558,19 +9570,17 @@
         <v>77</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9594,51 +9604,51 @@
         <v>77</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>375</v>
+      </c>
       <c r="D70" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>131</v>
+        <v>376</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>284</v>
+        <v>377</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>285</v>
+        <v>378</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9686,7 +9696,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -9695,7 +9705,7 @@
         <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>137</v>
@@ -9710,19 +9720,19 @@
         <v>77</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9735,22 +9745,26 @@
         <v>77</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>386</v>
+        <v>252</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
       </c>
@@ -9798,7 +9812,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>385</v>
+        <v>254</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9810,7 +9824,7 @@
         <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
@@ -9822,15 +9836,15 @@
         <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9841,7 +9855,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -9853,13 +9867,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9910,13 +9924,13 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
@@ -9939,10 +9953,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9965,13 +9979,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10022,7 +10036,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10051,10 +10065,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10077,13 +10091,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10134,7 +10148,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>271</v>
+        <v>387</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10146,7 +10160,7 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
@@ -10158,26 +10172,26 @@
         <v>77</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10189,17 +10203,15 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>334</v>
+        <v>243</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10248,19 +10260,19 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>77</v>
@@ -10272,19 +10284,19 @@
         <v>77</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10297,26 +10309,24 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>284</v>
+        <v>133</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10364,7 +10374,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10388,47 +10398,51 @@
         <v>77</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>129</v>
+        <v>246</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>398</v>
+        <v>252</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10476,19 +10490,19 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>397</v>
+        <v>254</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>77</v>
@@ -10500,15 +10514,15 @@
         <v>77</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10516,7 +10530,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>86</v>
@@ -10531,13 +10545,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10588,10 +10602,10 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>86</v>
@@ -10617,10 +10631,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10643,13 +10657,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10700,7 +10714,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10729,10 +10743,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10755,13 +10769,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>407</v>
+        <v>303</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>408</v>
+        <v>304</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10812,7 +10826,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>406</v>
+        <v>245</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10824,7 +10838,7 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
@@ -10841,10 +10855,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10855,7 +10869,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -10867,13 +10881,13 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>185</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>410</v>
+        <v>276</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>411</v>
+        <v>277</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10912,31 +10926,29 @@
         <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>77</v>
+        <v>279</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>409</v>
+        <v>249</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -10953,12 +10965,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="D82" t="s" s="2">
         <v>77</v>
       </c>
@@ -10979,15 +10993,17 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>252</v>
+        <v>403</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -11036,19 +11052,19 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>412</v>
+        <v>249</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
@@ -11065,10 +11081,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11091,13 +11107,13 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11121,7 +11137,7 @@
         <v>77</v>
       </c>
       <c r="W83" t="s" s="2">
-        <v>77</v>
+        <v>410</v>
       </c>
       <c r="X83" t="s" s="2">
         <v>77</v>
@@ -11148,7 +11164,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>415</v>
+        <v>314</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11160,7 +11176,7 @@
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
@@ -11177,10 +11193,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11203,13 +11219,13 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11260,7 +11276,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11289,10 +11305,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11315,13 +11331,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11372,7 +11388,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11401,10 +11417,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11427,13 +11443,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11484,7 +11500,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11513,10 +11529,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11527,7 +11543,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11539,13 +11555,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>265</v>
+        <v>226</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11596,13 +11612,13 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
@@ -11625,10 +11641,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11651,13 +11667,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>269</v>
+        <v>424</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>270</v>
+        <v>425</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11708,7 +11724,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>271</v>
+        <v>423</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11720,7 +11736,7 @@
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
@@ -11732,26 +11748,26 @@
         <v>77</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>77</v>
@@ -11763,17 +11779,15 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>334</v>
+        <v>427</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -11822,19 +11836,19 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>274</v>
+        <v>426</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>77</v>
@@ -11846,51 +11860,47 @@
         <v>77</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>284</v>
+        <v>430</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>167</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
       </c>
@@ -11938,19 +11948,19 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>286</v>
+        <v>429</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>77</v>
@@ -11962,15 +11972,15 @@
         <v>77</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11978,7 +11988,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>86</v>
@@ -11993,13 +12003,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>185</v>
+        <v>80</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12050,10 +12060,10 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>86</v>
@@ -12079,10 +12089,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12093,7 +12103,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>77</v>
@@ -12105,13 +12115,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12162,13 +12172,13 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>77</v>
@@ -12191,10 +12201,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12205,7 +12215,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>77</v>
@@ -12217,13 +12227,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>440</v>
+        <v>243</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>441</v>
+        <v>244</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12274,19 +12284,19 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>439</v>
+        <v>245</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>77</v>
@@ -12298,19 +12308,19 @@
         <v>77</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -12329,15 +12339,17 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>443</v>
+        <v>132</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>444</v>
+        <v>133</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -12386,7 +12398,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>442</v>
+        <v>249</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12398,18 +12410,582 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN94" t="s" s="2">
+      <c r="AK96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN99" t="s" s="2">
         <v>77</v>
       </c>
     </row>
